--- a/biology/Zoologie/Crabe_violoniste/Crabe_violoniste.xlsx
+++ b/biology/Zoologie/Crabe_violoniste/Crabe_violoniste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Uca pugilator
 Le Crabe violoniste (Uca pugilator ou Leptuca pugilator) est une espèce de Crustacés de la famille des Ocypodidae. Ce crabe fait partie des espèces du genre Uca, dits « crabes violonistes », à cause de l'énorme pince du mâle.
@@ -512,13 +524,15 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Nom scientifique valide : Uca pugilator (Bosc, 1802)[1],
-Nom vulgaire (vulgarisation scientifique) recommandé ou typique en français : Crabe violoniste[2],[3],[4]
-Autres noms vulgaires ou noms vernaculaires (langage courant), pouvant désigner éventuellement d'autres espèces : crabe appelant[4], aux Antilles : cémafaute, « cé ma faute » ou « c'est ma faute », car le mouvement de la pince rappelle celui d'un catholique faisant son mea culpa[5],[6], crabe violoniste[7] ou plus simplement crabe.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nom scientifique valide : Uca pugilator (Bosc, 1802),
+Nom vulgaire (vulgarisation scientifique) recommandé ou typique en français : Crabe violoniste
+Autres noms vulgaires ou noms vernaculaires (langage courant), pouvant désigner éventuellement d'autres espèces : crabe appelant, aux Antilles : cémafaute, « cé ma faute » ou « c'est ma faute », car le mouvement de la pince rappelle celui d'un catholique faisant son mea culpa crabe violoniste ou plus simplement crabe.
 Synonymes : 
-Ocypoda pugilator Bosc, 1802[8]
+Ocypoda pugilator Bosc, 1802
 Leptuca pugilator (Lockington, 1877)</t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'énorme pince du mâle, caractéristique des espèces du genre Uca, est longue de 10 centimètres alors que son autre pince ne mesure que 2,5 cm. La femelle ne possède pas cette pince démesurée qui sert aux mâles à se livrer bataille devant elle pour la parade. Le gagnant s'accouple alors avec la femelle.
 Aux Antilles, il est aussi appelé crabe « C'est ma faute » ou « Sé ma fòt » car le mouvement de sa pince ressemble à celui du fidèle se frappant la poitrine lors de la prière du Confiteor. Ils émettent des bruits en frappant leurs pinces sur leurs carapaces.
@@ -579,7 +595,9 @@
           <t>Distribution géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Uca pugilator est l'une des 5 espèces de crabes violonistes qui se trouvent principalement dans les zones tempérées. L'espèce se trouve sur la côte Est de l'Amérique du Nord et dans le golfe du Mexique. Elle a aussi été trouvée au large du Nord du Massachusetts, ainsi qu'au sud du Texas et de la Floride. Cette espèce a également été trouvée aux Bahamas et aux Antilles, ainsi que très récemment[C'est-à-dire ?] sur la côte basque (Hendaye), ainsi qu'à Moulay Bousselham et à Dakhla au Maroc mais aussi parmi les mangroves africaines : Gabon, etc.
 </t>
@@ -610,7 +628,9 @@
           <t>Nourriture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le crabe violoniste reste sous la mangrove en marée haute et sort en marée basse pour se nourrir de cadavres et de plantes en décomposition, qu'il filtre dans la boue[réf. nécessaire].
 </t>
@@ -641,9 +661,11 @@
           <t>Vision</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le système visuel de ce crabe perçoit la lumière visible, mais aussi la polarisation de la lumière. On a récemment montré que ces deux signaux sont traités  différentiellement par le système nerveux de l'animal, ce qui lui permet de nettement améliorer le contraste visuel de l'objet vu (par rapport à son arrière-plan)[9],[10]. On savait déjà que d'autres espèces, aquatiques notamment et crustacés en particulier perçoivent la polarisation de la lumière mais c'est chez le crabe violoniste qu'on a montré que le signal est traité différentiellement[10].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le système visuel de ce crabe perçoit la lumière visible, mais aussi la polarisation de la lumière. On a récemment montré que ces deux signaux sont traités  différentiellement par le système nerveux de l'animal, ce qui lui permet de nettement améliorer le contraste visuel de l'objet vu (par rapport à son arrière-plan),. On savait déjà que d'autres espèces, aquatiques notamment et crustacés en particulier perçoivent la polarisation de la lumière mais c'est chez le crabe violoniste qu'on a montré que le signal est traité différentiellement.
 </t>
         </is>
       </c>
